--- a/EV Connect.xlsx
+++ b/EV Connect.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flexera-my.sharepoint.com/personal/sbhardwaj_flexera_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Github_main\EV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{AD756C05-B07D-4D04-B670-55BB2E4F8AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BD594AE-AACE-4002-8551-50F2968E87E2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ADC619-20B3-4FEC-908F-4696495A6FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C7A2C123-FB9D-44D5-ADBB-A3298371D590}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C7A2C123-FB9D-44D5-ADBB-A3298371D590}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -464,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F88106-279C-4F9E-BB2B-D4591DB6E928}">
   <dimension ref="B1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -534,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552664D6-6D7C-47E7-AEF1-58CB1FEE59A1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
